--- a/Calculations/LT8490 boost.xlsx
+++ b/Calculations/LT8490 boost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PowerPart" sheetId="1" r:id="rId1"/>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -3253,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
